--- a/medicine/Pharmacie/Fareva/Fareva.xlsx
+++ b/medicine/Pharmacie/Fareva/Fareva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fareva est une entreprise de droit luxembourgeois qui s'occupe de sous-traitance et joue le rôle de façonnier dans le secteur pharmaceutique, para-pharmaceutique, de cosmétique et d'hygiène. L'entreprise est basée au Luxembourg et emploie environ 12 000 personnes[1], pour un chiffre d'affaires d'environ 1,8 milliard d'euros[2]. L'entreprise est détenue par Bernard, Jean-Pierre et Catherine Fraisse[1].
+Fareva est une entreprise de droit luxembourgeois qui s'occupe de sous-traitance et joue le rôle de façonnier dans le secteur pharmaceutique, para-pharmaceutique, de cosmétique et d'hygiène. L'entreprise est basée au Luxembourg et emploie environ 12 000 personnes, pour un chiffre d'affaires d'environ 1,8 milliard d'euros. L'entreprise est détenue par Bernard, Jean-Pierre et Catherine Fraisse.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fareva a été créé en 1985. Son site d'origine est à Tournon-sur-Rhône (Ardèche). Le groupe comprenait environ 5 000 salariés en 2009[3] et 8 000 en 2012[4].
-En 2012, Fareva acquiert K &amp; Gn, la filiale brésilienne d'Avon, filiale comprenant 850 salariés[5].
-En 2014, Fareva acquiert une usine de Pfizer située à Amboise et qui compte 480 salariés[4]. La même année, il acquiert Chromavis, une entreprise italienne de sous-traitance dans les cosmétiques qui emploie 800 salariés[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fareva a été créé en 1985. Son site d'origine est à Tournon-sur-Rhône (Ardèche). Le groupe comprenait environ 5 000 salariés en 2009 et 8 000 en 2012.
+En 2012, Fareva acquiert K &amp; Gn, la filiale brésilienne d'Avon, filiale comprenant 850 salariés.
+En 2014, Fareva acquiert une usine de Pfizer située à Amboise et qui compte 480 salariés. La même année, il acquiert Chromavis, une entreprise italienne de sous-traitance dans les cosmétiques qui emploie 800 salariés. 
 En 2018, Fareva acquiert une usine OTC de cosmétiques basée à Chicago (USA) pour compléter son offre sur le territoire américain.
-En janvier 2021, Fareva reprend le site de Mirabel[6] à Riom (Puy-de-Dôme) au groupe américain Merck Sharp and Dohme (MSD).
-En février 2021, l'entreprise annonce un investissement de 10 millions d'euros avec le soutien de l'État en vue de mettre en service une nouvelle unité de production de flacons de corticostéroïdes. Cet investissement concerne l'usine Valdepharm située à Val-de-Reuil, dans l'Eure[7].
+En janvier 2021, Fareva reprend le site de Mirabel à Riom (Puy-de-Dôme) au groupe américain Merck Sharp and Dohme (MSD).
+En février 2021, l'entreprise annonce un investissement de 10 millions d'euros avec le soutien de l'État en vue de mettre en service une nouvelle unité de production de flacons de corticostéroïdes. Cet investissement concerne l'usine Valdepharm située à Val-de-Reuil, dans l'Eure.
 </t>
         </is>
       </c>
